--- a/resource/map/Map 1-2_location.xlsx
+++ b/resource/map/Map 1-2_location.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w\Desktop\LostVikingImg\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="114">
   <si>
     <t xml:space="preserve">땅   </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,6 +269,201 @@
   <si>
     <t>3버튼</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back_Effect1</t>
+  </si>
+  <si>
+    <t>113, 358</t>
+  </si>
+  <si>
+    <t>32, 32</t>
+  </si>
+  <si>
+    <t>817, 368</t>
+  </si>
+  <si>
+    <t>1073, 288</t>
+  </si>
+  <si>
+    <t>977, 80</t>
+  </si>
+  <si>
+    <t>1169, 80</t>
+  </si>
+  <si>
+    <t>1521, 336</t>
+  </si>
+  <si>
+    <t>1969, 368</t>
+  </si>
+  <si>
+    <t>1713, 720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>593, 560</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>177, 560</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>625, 1008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>433, 1328</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1841, 1360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back_Effect2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62, 62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1665, 480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1985, 1248</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1633, 1184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1377, 1152</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1185, 1056</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>833, 864</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>641, 780</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>513, 800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>449, 864</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 832</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>705, 992</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>193, 1120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>897, 1312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>705, 1376</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1089, 512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1216, 1023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>up_Effect</t>
+  </si>
+  <si>
+    <t>electric_Shock3</t>
+  </si>
+  <si>
+    <t>1889, 1504</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64, 64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64, 32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64, 80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>broken_computer</t>
+  </si>
+  <si>
+    <t>electric_Shock4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>577, 32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>769, 32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1345, 32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1761, 672</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1793, 672</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1665, 1312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1121, 1312 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>673, 960</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>768, 1087</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>broken_Block</t>
   </si>
 </sst>
 </file>
@@ -368,7 +563,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -381,9 +576,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -393,11 +585,20 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -471,23 +672,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2503,6 +2691,1626 @@
               </a:outerShdw>
             </a:effectLst>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="2514600"/>
+          <a:ext cx="304800" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="직사각형 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5781675" y="2590800"/>
+          <a:ext cx="304800" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="직사각형 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8305800" y="533400"/>
+          <a:ext cx="304800" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="직사각형 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="533400"/>
+          <a:ext cx="304800" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="직사각형 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7629525" y="2019300"/>
+          <a:ext cx="304800" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="직사각형 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10829925" y="2362200"/>
+          <a:ext cx="304800" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="직사각형 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14030325" y="2590800"/>
+          <a:ext cx="304800" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="직사각형 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12201525" y="5105400"/>
+          <a:ext cx="304800" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="직사각형 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4200525" y="3952875"/>
+          <a:ext cx="304800" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="직사각형 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="3952875"/>
+          <a:ext cx="304800" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="직사각형 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4419600" y="7153275"/>
+          <a:ext cx="304800" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="직사각형 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3038475" y="9439275"/>
+          <a:ext cx="304800" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="직사각형 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13115925" y="9667875"/>
+          <a:ext cx="304800" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="직사각형 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11896725" y="3409950"/>
+          <a:ext cx="457200" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="직사각형 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14192250" y="8877300"/>
+          <a:ext cx="457200" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="직사각형 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11668125" y="8429625"/>
+          <a:ext cx="457200" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="직사각형 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9839325" y="8201025"/>
+          <a:ext cx="457200" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="직사각형 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8448675" y="7515225"/>
+          <a:ext cx="457200" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>470646</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>244288</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>103654</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="직사각형 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5939117" y="6208059"/>
+          <a:ext cx="457200" cy="495860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>78440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>221876</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>148477</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="직사각형 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4549588" y="5614146"/>
+          <a:ext cx="457200" cy="495860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>681318</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>193301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="직사각형 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3641912" y="5658970"/>
+          <a:ext cx="457200" cy="495860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>470648</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>244289</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>103654</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="직사각형 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3204883" y="6208059"/>
+          <a:ext cx="457200" cy="495860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>468405</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>103655</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="직사각형 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11205" y="5995148"/>
+          <a:ext cx="457200" cy="495860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>20170</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>2801</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="직사각형 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5031441" y="7171765"/>
+          <a:ext cx="457200" cy="495860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>479612</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>92447</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="직사각형 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1389530" y="8113058"/>
+          <a:ext cx="457200" cy="495860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>235323</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>8964</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>204507</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="직사각형 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5020235" y="9928412"/>
+          <a:ext cx="457200" cy="495860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>242047</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>107576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15688</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>177613</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="직사각형 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6394076" y="9475694"/>
+          <a:ext cx="457200" cy="495860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2774,10 +4582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="V2:Y32"/>
+  <dimension ref="V2:AB61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z43" sqref="Z43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB28" sqref="AB28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2786,34 +4594,36 @@
     <col min="23" max="23" width="5.875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.5" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="23:25" x14ac:dyDescent="0.3">
       <c r="W2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y2" s="4"/>
+      <c r="Y2" s="10"/>
     </row>
     <row r="3" spans="23:25" x14ac:dyDescent="0.3">
       <c r="W3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="X3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Y3" s="4"/>
+      <c r="Y3" s="10"/>
     </row>
     <row r="4" spans="23:25" x14ac:dyDescent="0.3">
       <c r="W4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="X4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Y4" s="4"/>
+      <c r="Y4" s="10"/>
     </row>
     <row r="5" spans="23:25" x14ac:dyDescent="0.3">
       <c r="X5" t="s">
@@ -2824,7 +4634,7 @@
       </c>
     </row>
     <row r="6" spans="23:25" x14ac:dyDescent="0.3">
-      <c r="W6" s="6" t="s">
+      <c r="W6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="X6" t="s">
@@ -2835,7 +4645,7 @@
       </c>
     </row>
     <row r="7" spans="23:25" x14ac:dyDescent="0.3">
-      <c r="W7" s="6" t="s">
+      <c r="W7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="X7" t="s">
@@ -2846,7 +4656,7 @@
       </c>
     </row>
     <row r="8" spans="23:25" x14ac:dyDescent="0.3">
-      <c r="W8" s="6" t="s">
+      <c r="W8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="X8" t="s">
@@ -2857,7 +4667,7 @@
       </c>
     </row>
     <row r="9" spans="23:25" x14ac:dyDescent="0.3">
-      <c r="W9" s="6" t="s">
+      <c r="W9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="X9" t="s">
@@ -2868,7 +4678,7 @@
       </c>
     </row>
     <row r="11" spans="23:25" x14ac:dyDescent="0.3">
-      <c r="W11" s="7" t="s">
+      <c r="W11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="X11" t="s">
@@ -2879,7 +4689,7 @@
       </c>
     </row>
     <row r="12" spans="23:25" x14ac:dyDescent="0.3">
-      <c r="W12" s="7" t="s">
+      <c r="W12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="X12" t="s">
@@ -2890,7 +4700,7 @@
       </c>
     </row>
     <row r="13" spans="23:25" x14ac:dyDescent="0.3">
-      <c r="W13" s="7" t="s">
+      <c r="W13" s="6" t="s">
         <v>14</v>
       </c>
       <c r="X13" t="s">
@@ -2901,7 +4711,7 @@
       </c>
     </row>
     <row r="14" spans="23:25" x14ac:dyDescent="0.3">
-      <c r="W14" s="7" t="s">
+      <c r="W14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="X14" t="s">
@@ -2912,7 +4722,7 @@
       </c>
     </row>
     <row r="15" spans="23:25" x14ac:dyDescent="0.3">
-      <c r="W15" s="7" t="s">
+      <c r="W15" s="6" t="s">
         <v>16</v>
       </c>
       <c r="X15" t="s">
@@ -2923,7 +4733,7 @@
       </c>
     </row>
     <row r="16" spans="23:25" x14ac:dyDescent="0.3">
-      <c r="W16" s="7" t="s">
+      <c r="W16" s="6" t="s">
         <v>17</v>
       </c>
       <c r="X16" t="s">
@@ -2934,7 +4744,7 @@
       </c>
     </row>
     <row r="18" spans="22:25" x14ac:dyDescent="0.3">
-      <c r="W18" s="5" t="s">
+      <c r="W18" s="4" t="s">
         <v>18</v>
       </c>
       <c r="X18" t="s">
@@ -2945,7 +4755,7 @@
       </c>
     </row>
     <row r="19" spans="22:25" x14ac:dyDescent="0.3">
-      <c r="W19" s="5" t="s">
+      <c r="W19" s="4" t="s">
         <v>19</v>
       </c>
       <c r="X19" t="s">
@@ -2956,7 +4766,7 @@
       </c>
     </row>
     <row r="20" spans="22:25" x14ac:dyDescent="0.3">
-      <c r="W20" s="5" t="s">
+      <c r="W20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="X20" t="s">
@@ -2967,7 +4777,7 @@
       </c>
     </row>
     <row r="21" spans="22:25" x14ac:dyDescent="0.3">
-      <c r="W21" s="5" t="s">
+      <c r="W21" s="4" t="s">
         <v>21</v>
       </c>
       <c r="X21" t="s">
@@ -2978,7 +4788,7 @@
       </c>
     </row>
     <row r="22" spans="22:25" x14ac:dyDescent="0.3">
-      <c r="W22" s="5" t="s">
+      <c r="W22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="X22" t="s">
@@ -2989,7 +4799,7 @@
       </c>
     </row>
     <row r="23" spans="22:25" x14ac:dyDescent="0.3">
-      <c r="W23" s="5" t="s">
+      <c r="W23" s="4" t="s">
         <v>23</v>
       </c>
       <c r="X23" t="s">
@@ -3005,10 +4815,10 @@
       </c>
     </row>
     <row r="25" spans="22:25" x14ac:dyDescent="0.3">
-      <c r="V25" s="8" t="s">
+      <c r="V25" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="W25" s="8"/>
+      <c r="W25" s="11"/>
       <c r="X25" t="s">
         <v>57</v>
       </c>
@@ -3022,7 +4832,7 @@
       </c>
     </row>
     <row r="28" spans="22:25" x14ac:dyDescent="0.3">
-      <c r="W28" s="9" t="s">
+      <c r="W28" s="7" t="s">
         <v>27</v>
       </c>
       <c r="X28" t="s">
@@ -3033,7 +4843,7 @@
       </c>
     </row>
     <row r="29" spans="22:25" x14ac:dyDescent="0.3">
-      <c r="W29" s="9" t="s">
+      <c r="W29" s="7" t="s">
         <v>28</v>
       </c>
       <c r="X29" t="s">
@@ -3044,7 +4854,7 @@
       </c>
     </row>
     <row r="30" spans="22:25" x14ac:dyDescent="0.3">
-      <c r="W30" s="9" t="s">
+      <c r="W30" s="7" t="s">
         <v>61</v>
       </c>
       <c r="X30" t="s">
@@ -3055,10 +4865,10 @@
       </c>
     </row>
     <row r="32" spans="22:25" x14ac:dyDescent="0.3">
-      <c r="V32" s="10" t="s">
+      <c r="V32" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="W32" s="10"/>
+      <c r="W32" s="12"/>
       <c r="X32" t="s">
         <v>41</v>
       </c>
@@ -3066,8 +4876,227 @@
         <v>56</v>
       </c>
     </row>
+    <row r="34" spans="22:28" x14ac:dyDescent="0.3">
+      <c r="V34" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="W34" s="9"/>
+      <c r="X34" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="22:28" x14ac:dyDescent="0.3">
+      <c r="X35" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="22:28" x14ac:dyDescent="0.3">
+      <c r="X36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="22:28" x14ac:dyDescent="0.3">
+      <c r="X37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="22:28" x14ac:dyDescent="0.3">
+      <c r="X38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="22:28" x14ac:dyDescent="0.3">
+      <c r="X39" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA39" s="8">
+        <v>12491360</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="22:28" x14ac:dyDescent="0.3">
+      <c r="X40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="22:28" x14ac:dyDescent="0.3">
+      <c r="X41" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="22:28" x14ac:dyDescent="0.3">
+      <c r="X42" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="22:28" x14ac:dyDescent="0.3">
+      <c r="X43" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="22:28" x14ac:dyDescent="0.3">
+      <c r="X44" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="22:28" x14ac:dyDescent="0.3">
+      <c r="X45" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA45" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="22:28" x14ac:dyDescent="0.3">
+      <c r="X46" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="22:28" x14ac:dyDescent="0.3">
+      <c r="AA47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="22:28" x14ac:dyDescent="0.3">
+      <c r="V48" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="W48" s="9"/>
+      <c r="X48" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="24:28" x14ac:dyDescent="0.3">
+      <c r="X49" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="24:28" x14ac:dyDescent="0.3">
+      <c r="X50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="24:28" x14ac:dyDescent="0.3">
+      <c r="X51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="24:28" x14ac:dyDescent="0.3">
+      <c r="X52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="24:28" x14ac:dyDescent="0.3">
+      <c r="X53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="24:28" x14ac:dyDescent="0.3">
+      <c r="X54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="24:28" x14ac:dyDescent="0.3">
+      <c r="X55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="24:28" x14ac:dyDescent="0.3">
+      <c r="X56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="24:28" x14ac:dyDescent="0.3">
+      <c r="X57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="24:28" x14ac:dyDescent="0.3">
+      <c r="X58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="24:28" x14ac:dyDescent="0.3">
+      <c r="X59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="24:28" x14ac:dyDescent="0.3">
+      <c r="X60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="24:28" x14ac:dyDescent="0.3">
+      <c r="X61" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="V48:W48"/>
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="X4:Y4"/>

--- a/resource/map/Map 1-2_location.xlsx
+++ b/resource/map/Map 1-2_location.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w\Desktop\LostVikingImg\map\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w\Documents\GitHub\thelostviking\resource\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="117">
   <si>
     <t xml:space="preserve">땅   </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -464,6 +464,18 @@
   </si>
   <si>
     <t>broken_Block</t>
+  </si>
+  <si>
+    <t>Exit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>609, 1472</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64, 96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4584,8 +4596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="V2:AB61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB28" sqref="AB28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB52" sqref="AB52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5046,6 +5058,15 @@
     <row r="52" spans="24:28" x14ac:dyDescent="0.3">
       <c r="X52" t="s">
         <v>83</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="24:28" x14ac:dyDescent="0.3">
